--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -492,21 +492,9 @@
           <t>No.</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="8" t="n"/>
       <c r="E2" s="8" t="n"/>
       <c r="F2" s="8" t="n"/>
       <c r="G2" s="5" t="n"/>
@@ -521,21 +509,9 @@
           <t>Temperature(°C)</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>20°</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>18°</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>20°</t>
-        </is>
-      </c>
+      <c r="B3" s="8" t="n"/>
+      <c r="C3" s="8" t="n"/>
+      <c r="D3" s="8" t="n"/>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="5" t="n"/>
@@ -550,21 +526,9 @@
           <t>Hour</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>13:27:09</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>13:27:17</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>13:27:26</t>
-        </is>
-      </c>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="8" t="n"/>
       <c r="E4" s="8" t="n"/>
       <c r="F4" s="8" t="n"/>
       <c r="G4" s="5" t="n"/>
@@ -579,21 +543,9 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>20-09-22</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>20-09-22</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>20-09-22</t>
-        </is>
-      </c>
+      <c r="B5" s="9" t="n"/>
+      <c r="C5" s="9" t="n"/>
+      <c r="D5" s="9" t="n"/>
       <c r="E5" s="9" t="n"/>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="5" t="n"/>

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -492,8 +492,16 @@
           <t>No.</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
       <c r="D2" s="8" t="n"/>
       <c r="E2" s="8" t="n"/>
       <c r="F2" s="8" t="n"/>
@@ -502,6 +510,16 @@
       <c r="I2" s="5" t="n"/>
       <c r="J2" s="5" t="n"/>
       <c r="K2" s="5" t="n"/>
+      <c r="L2" s="5" t="n"/>
+      <c r="M2" s="5" t="n"/>
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="5" t="n"/>
+      <c r="P2" s="5" t="n"/>
+      <c r="Q2" s="5" t="n"/>
+      <c r="R2" s="5" t="n"/>
+      <c r="S2" s="5" t="n"/>
+      <c r="T2" s="5" t="n"/>
+      <c r="U2" s="5" t="n"/>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
@@ -509,8 +527,16 @@
           <t>Temperature(°C)</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n"/>
-      <c r="C3" s="8" t="n"/>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>19°</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>22°</t>
+        </is>
+      </c>
       <c r="D3" s="8" t="n"/>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
@@ -519,6 +545,16 @@
       <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
       <c r="K3" s="5" t="n"/>
+      <c r="L3" s="5" t="n"/>
+      <c r="M3" s="5" t="n"/>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="5" t="n"/>
+      <c r="P3" s="5" t="n"/>
+      <c r="Q3" s="5" t="n"/>
+      <c r="R3" s="5" t="n"/>
+      <c r="S3" s="5" t="n"/>
+      <c r="T3" s="5" t="n"/>
+      <c r="U3" s="5" t="n"/>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
@@ -526,8 +562,16 @@
           <t>Hour</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>12:13:26</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>12:13:31</t>
+        </is>
+      </c>
       <c r="D4" s="8" t="n"/>
       <c r="E4" s="8" t="n"/>
       <c r="F4" s="8" t="n"/>
@@ -536,6 +580,16 @@
       <c r="I4" s="5" t="n"/>
       <c r="J4" s="5" t="n"/>
       <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
+      <c r="M4" s="5" t="n"/>
+      <c r="N4" s="5" t="n"/>
+      <c r="O4" s="5" t="n"/>
+      <c r="P4" s="5" t="n"/>
+      <c r="Q4" s="5" t="n"/>
+      <c r="R4" s="5" t="n"/>
+      <c r="S4" s="5" t="n"/>
+      <c r="T4" s="5" t="n"/>
+      <c r="U4" s="5" t="n"/>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
@@ -543,8 +597,16 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="B5" s="9" t="n"/>
-      <c r="C5" s="9" t="n"/>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>23-09-22</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>23-09-22</t>
+        </is>
+      </c>
       <c r="D5" s="9" t="n"/>
       <c r="E5" s="9" t="n"/>
       <c r="F5" s="9" t="n"/>
@@ -553,6 +615,16 @@
       <c r="I5" s="5" t="n"/>
       <c r="J5" s="5" t="n"/>
       <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
+      <c r="M5" s="5" t="n"/>
+      <c r="N5" s="5" t="n"/>
+      <c r="O5" s="5" t="n"/>
+      <c r="P5" s="5" t="n"/>
+      <c r="Q5" s="5" t="n"/>
+      <c r="R5" s="5" t="n"/>
+      <c r="S5" s="5" t="n"/>
+      <c r="T5" s="5" t="n"/>
+      <c r="U5" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -1,57 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\PycharmProjects\pythonProject\xlsx_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1148564D-25E6-4223-9D84-DCAECDAD434D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>Final Report</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Temperature(°C)</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>12:13:26</t>
+  </si>
+  <si>
+    <t>12:13:31</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>23-09-22</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF069A2E"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF069A2E"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,54 +91,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -172,9 +171,1066 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3456234637336993E-2"/>
+          <c:y val="9.6309656794630771E-2"/>
+          <c:w val="0.90262006722843857"/>
+          <c:h val="0.73668564785803159"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-15D2-4ECC-B7A4-7CE9EF034AEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temperature(°C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-15D2-4ECC-B7A4-7CE9EF034AEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054486000"/>
+        <c:axId val="2054485584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054486000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054485584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054485584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22"/>
+          <c:min val="18"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054486000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>8573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18098</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B749017-454E-8CFA-10E0-87B2717FEF73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,185 +1517,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="20.01" customWidth="1" style="5" min="1" max="1"/>
-    <col width="15.95" customWidth="1" style="5" min="2" max="2"/>
-    <col width="13.36" customWidth="1" style="5" min="3" max="3"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>Final Report</t>
-        </is>
-      </c>
+    <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>No.</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="n"/>
-      <c r="E2" s="8" t="n"/>
-      <c r="F2" s="8" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="5" t="n"/>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
-      <c r="L2" s="5" t="n"/>
-      <c r="M2" s="5" t="n"/>
-      <c r="N2" s="5" t="n"/>
-      <c r="O2" s="5" t="n"/>
-      <c r="P2" s="5" t="n"/>
-      <c r="Q2" s="5" t="n"/>
-      <c r="R2" s="5" t="n"/>
-      <c r="S2" s="5" t="n"/>
-      <c r="T2" s="5" t="n"/>
-      <c r="U2" s="5" t="n"/>
+    <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Temperature(°C)</t>
-        </is>
-      </c>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>19°</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>22°</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="n"/>
-      <c r="E3" s="8" t="n"/>
-      <c r="F3" s="8" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="n"/>
-      <c r="M3" s="5" t="n"/>
-      <c r="N3" s="5" t="n"/>
-      <c r="O3" s="5" t="n"/>
-      <c r="P3" s="5" t="n"/>
-      <c r="Q3" s="5" t="n"/>
-      <c r="R3" s="5" t="n"/>
-      <c r="S3" s="5" t="n"/>
-      <c r="T3" s="5" t="n"/>
-      <c r="U3" s="5" t="n"/>
+    <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-6</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-14</v>
+      </c>
+      <c r="N3" s="2">
+        <v>-18</v>
+      </c>
+      <c r="O3" s="2">
+        <v>-22</v>
+      </c>
+      <c r="P3" s="2">
+        <v>-26</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>12:13:26</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>12:13:31</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="n"/>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
-      <c r="M4" s="5" t="n"/>
-      <c r="N4" s="5" t="n"/>
-      <c r="O4" s="5" t="n"/>
-      <c r="P4" s="5" t="n"/>
-      <c r="Q4" s="5" t="n"/>
-      <c r="R4" s="5" t="n"/>
-      <c r="S4" s="5" t="n"/>
-      <c r="T4" s="5" t="n"/>
-      <c r="U4" s="5" t="n"/>
+    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>23-09-22</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>23-09-22</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="n"/>
-      <c r="E5" s="9" t="n"/>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="5" t="n"/>
-      <c r="N5" s="5" t="n"/>
-      <c r="O5" s="5" t="n"/>
-      <c r="P5" s="5" t="n"/>
-      <c r="Q5" s="5" t="n"/>
-      <c r="R5" s="5" t="n"/>
-      <c r="S5" s="5" t="n"/>
-      <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
+    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>